--- a/test.xlsx
+++ b/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\environment\codes\projects\AiChellenge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\environment\codes\projects\AiChellenge\CurlingSimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -185,9 +185,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -478,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -491,26 +497,26 @@
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,7 +551,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3.2</v>
       </c>
@@ -580,11 +586,19 @@
         <v>3.1520000000000001</v>
       </c>
       <c r="M3" s="1">
-        <f>K4-K3</f>
-        <v>0.76799999999999979</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <f>F3-K3</f>
+        <v>18.3613</v>
+      </c>
+      <c r="N3" s="4">
+        <f>27.6+4.88-F3</f>
+        <v>10.966700000000003</v>
+      </c>
+      <c r="O3" s="1">
+        <f>A3+H3</f>
+        <v>1.1583000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3.1</v>
       </c>
@@ -618,12 +632,20 @@
       <c r="K4" s="1">
         <v>3.92</v>
       </c>
-      <c r="M4" s="1">
-        <f t="shared" ref="M4:M10" si="0">K5-K4</f>
-        <v>0.89590000000000014</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M4" s="3">
+        <f t="shared" ref="M4:M9" si="0">F4-K4</f>
+        <v>17.595399999999998</v>
+      </c>
+      <c r="N4" s="4">
+        <f t="shared" ref="N4:N10" si="1">27.6+4.88-F4</f>
+        <v>10.964600000000004</v>
+      </c>
+      <c r="O4" s="4">
+        <f t="shared" ref="O4:O10" si="2">A4+H4</f>
+        <v>1.1334000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -657,12 +679,20 @@
       <c r="K5" s="1">
         <v>4.8159000000000001</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="3">
         <f t="shared" si="0"/>
-        <v>0.81069999999999975</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16.701499999999999</v>
+      </c>
+      <c r="N5" s="4">
+        <f t="shared" si="1"/>
+        <v>10.962600000000005</v>
+      </c>
+      <c r="O5" s="4">
+        <f t="shared" si="2"/>
+        <v>1.1105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2.9</v>
       </c>
@@ -696,12 +726,20 @@
       <c r="K6" s="1">
         <v>5.6265999999999998</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="3">
         <f t="shared" si="0"/>
-        <v>0.91169999999999973</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>15.901499999999999</v>
+      </c>
+      <c r="N6" s="4">
+        <f t="shared" si="1"/>
+        <v>10.951900000000006</v>
+      </c>
+      <c r="O6" s="4">
+        <f t="shared" si="2"/>
+        <v>1.0857999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2.8</v>
       </c>
@@ -735,12 +773,20 @@
       <c r="K7" s="1">
         <v>6.5382999999999996</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="3">
         <f t="shared" si="0"/>
-        <v>0.9986000000000006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>14.9846</v>
+      </c>
+      <c r="N7" s="4">
+        <f t="shared" si="1"/>
+        <v>10.957100000000004</v>
+      </c>
+      <c r="O7" s="4">
+        <f t="shared" si="2"/>
+        <v>1.0615999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2.7</v>
       </c>
@@ -774,12 +820,20 @@
       <c r="K8" s="1">
         <v>7.5369000000000002</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="3">
         <f t="shared" si="0"/>
-        <v>0.88060000000000027</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>13.989000000000001</v>
+      </c>
+      <c r="N8" s="4">
+        <f t="shared" si="1"/>
+        <v>10.954100000000004</v>
+      </c>
+      <c r="O8" s="4">
+        <f t="shared" si="2"/>
+        <v>1.0434000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2.6</v>
       </c>
@@ -813,12 +867,20 @@
       <c r="K9" s="1">
         <v>8.4175000000000004</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="3">
         <f t="shared" si="0"/>
-        <v>0.98780000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>13.109099999999998</v>
+      </c>
+      <c r="N9" s="4">
+        <f t="shared" si="1"/>
+        <v>10.953400000000006</v>
+      </c>
+      <c r="O9" s="4">
+        <f t="shared" si="2"/>
+        <v>1.0204000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2.5</v>
       </c>
@@ -852,12 +914,20 @@
       <c r="K10" s="1">
         <v>9.4053000000000004</v>
       </c>
-      <c r="M10" s="1">
-        <f t="shared" si="0"/>
-        <v>-9.4053000000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M10" s="3">
+        <f>F10-K10</f>
+        <v>12.123100000000001</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" si="1"/>
+        <v>10.951600000000003</v>
+      </c>
+      <c r="O10" s="4">
+        <f t="shared" si="2"/>
+        <v>1.0014000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -892,7 +962,7 @@
         <v>5.4016000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -927,7 +997,7 @@
         <v>5.0759999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -962,7 +1032,7 @@
         <v>5.0103</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>3</v>
       </c>
@@ -997,7 +1067,7 @@
         <v>4.8754999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -1138,10 +1208,10 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
@@ -1153,22 +1223,22 @@
       <c r="A27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3" t="s">
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
@@ -1424,30 +1494,30 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3" t="s">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3" t="s">
+      <c r="D36" s="5"/>
+      <c r="E36" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
